--- a/output/1Y_P60_KFSDIV.xlsx
+++ b/output/1Y_P60_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>12.2036</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>12.9136</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E3" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="F3" s="1">
-        <v>774.3774</v>
+        <v>772.8274</v>
       </c>
       <c r="H3" s="1">
-        <v>10581.7955</v>
+        <v>10539.4951</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10581.7955</v>
+        <v>10539.4951</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0582</v>
+        <v>0.0539</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>13.4338</v>
       </c>
       <c r="C4" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D4" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E4" s="1">
-        <v>1593.8077</v>
+        <v>1590.6159</v>
       </c>
       <c r="F4" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="H4" s="1">
-        <v>21410.8943</v>
+        <v>21325.2286</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>21410.8943</v>
+        <v>21325.2286</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>12.5486</v>
+        <v>12.5737</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0403</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>12.9657</v>
       </c>
       <c r="C5" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E5" s="1">
-        <v>2338.1987</v>
+        <v>2333.5193</v>
       </c>
       <c r="F5" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="H5" s="1">
-        <v>30316.3835</v>
+        <v>30195.2736</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>30316.3835</v>
+        <v>30195.2736</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8304</v>
+        <v>12.8561</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>430.3281</v>
+        <v>429.4663</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9569.671899999999</v>
+        <v>-9570.5337</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0348</v>
+        <v>-0.0361</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>13.3568</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E6" s="1">
-        <v>3109.4645</v>
+        <v>3103.2415</v>
       </c>
       <c r="F6" s="1">
-        <v>752.7096</v>
+        <v>751.1942</v>
       </c>
       <c r="H6" s="1">
-        <v>41532.495</v>
+        <v>41366.5202</v>
       </c>
       <c r="I6" s="1">
-        <v>430.3281</v>
+        <v>429.4663</v>
       </c>
       <c r="J6" s="1">
-        <v>41962.8231</v>
+        <v>41795.9865</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.864</v>
+        <v>12.8897</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10053.791</v>
+        <v>-10053.6833</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0408</v>
+        <v>0.0398</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>13.2487</v>
       </c>
       <c r="C7" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D7" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E7" s="1">
-        <v>3862.174</v>
+        <v>3854.4358</v>
       </c>
       <c r="F7" s="1">
-        <v>758.8511</v>
+        <v>757.3282</v>
       </c>
       <c r="H7" s="1">
-        <v>51168.785</v>
+        <v>50964.1209</v>
       </c>
       <c r="I7" s="1">
-        <v>376.5371</v>
+        <v>375.783</v>
       </c>
       <c r="J7" s="1">
-        <v>51545.3221</v>
+        <v>51339.9039</v>
       </c>
       <c r="K7" s="1">
-        <v>50053.791</v>
+        <v>50053.6833</v>
       </c>
       <c r="L7" s="1">
-        <v>12.96</v>
+        <v>12.986</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10053.791</v>
+        <v>-10053.6833</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.008</v>
+        <v>-0.008800000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>13.3991</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E8" s="1">
-        <v>4621.0252</v>
+        <v>4611.764</v>
       </c>
       <c r="F8" s="1">
-        <v>750.3333</v>
+        <v>748.8275</v>
       </c>
       <c r="H8" s="1">
-        <v>61917.5782</v>
+        <v>61669.8916</v>
       </c>
       <c r="I8" s="1">
-        <v>322.7461</v>
+        <v>322.0997</v>
       </c>
       <c r="J8" s="1">
-        <v>62240.3243</v>
+        <v>61991.9913</v>
       </c>
       <c r="K8" s="1">
-        <v>60107.582</v>
+        <v>60107.3666</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0074</v>
+        <v>13.0335</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1390.3826</v>
+        <v>1387.5969</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8663.4084</v>
+        <v>-8666.0864</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0113</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>13.5985</v>
       </c>
       <c r="C9" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D9" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E9" s="1">
-        <v>5371.3585</v>
+        <v>5360.5915</v>
       </c>
       <c r="F9" s="1">
-        <v>759.7799</v>
+        <v>758.2145</v>
       </c>
       <c r="H9" s="1">
-        <v>73042.4181</v>
+        <v>72750.1954</v>
       </c>
       <c r="I9" s="1">
-        <v>1659.3377</v>
+        <v>1656.0133</v>
       </c>
       <c r="J9" s="1">
-        <v>74701.7558</v>
+        <v>74406.20879999999</v>
       </c>
       <c r="K9" s="1">
-        <v>70161.37300000001</v>
+        <v>70161.0499</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0621</v>
+        <v>13.0883</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10331.8675</v>
+        <v>-10331.2027</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0341</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>13.6955</v>
       </c>
       <c r="C10" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D10" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E10" s="1">
-        <v>6131.1384</v>
+        <v>6118.806</v>
       </c>
       <c r="F10" s="1">
-        <v>754.3987</v>
+        <v>752.8440000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>83969.0061</v>
+        <v>83632.45170000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1327.4702</v>
+        <v>1324.8107</v>
       </c>
       <c r="J10" s="1">
-        <v>85296.47629999999</v>
+        <v>84957.2623</v>
       </c>
       <c r="K10" s="1">
-        <v>80493.2406</v>
+        <v>80492.2525</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1286</v>
+        <v>13.1549</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10331.8675</v>
+        <v>-10331.2027</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.007</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>13.3398</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E11" s="1">
-        <v>6885.5371</v>
+        <v>6871.6499</v>
       </c>
       <c r="F11" s="1">
-        <v>774.5144</v>
+        <v>772.9176</v>
       </c>
       <c r="H11" s="1">
-        <v>91851.6881</v>
+        <v>91482.9627</v>
       </c>
       <c r="I11" s="1">
-        <v>995.6026000000001</v>
+        <v>993.6079999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>92847.2907</v>
+        <v>92476.5707</v>
       </c>
       <c r="K11" s="1">
-        <v>90825.1081</v>
+        <v>90823.4552</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1907</v>
+        <v>13.2171</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1655.4074</v>
+        <v>1652.0776</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8676.4602</v>
+        <v>-8679.125099999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0257</v>
+        <v>-0.0261</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>12.8469</v>
       </c>
       <c r="C12" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D12" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E12" s="1">
-        <v>7660.0515</v>
+        <v>7644.5675</v>
       </c>
       <c r="F12" s="1">
-        <v>868.6587</v>
+        <v>866.7434</v>
       </c>
       <c r="H12" s="1">
-        <v>98407.91620000001</v>
+        <v>98012.5289</v>
       </c>
       <c r="I12" s="1">
-        <v>2319.1425</v>
+        <v>2314.4829</v>
       </c>
       <c r="J12" s="1">
-        <v>100727.0587</v>
+        <v>100327.0118</v>
       </c>
       <c r="K12" s="1">
-        <v>101156.9757</v>
+        <v>101154.6579</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2058</v>
+        <v>13.2322</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11159.5712</v>
+        <v>-11157.2415</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0206</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>13.129</v>
       </c>
       <c r="C13" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D13" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E13" s="1">
-        <v>8528.7102</v>
+        <v>8511.3109</v>
       </c>
       <c r="F13" s="1">
-        <v>849.994</v>
+        <v>848.1176</v>
       </c>
       <c r="H13" s="1">
-        <v>111973.4366</v>
+        <v>111521.1537</v>
       </c>
       <c r="I13" s="1">
-        <v>1159.5712</v>
+        <v>1157.2415</v>
       </c>
       <c r="J13" s="1">
-        <v>113133.0078</v>
+        <v>112678.3952</v>
       </c>
       <c r="K13" s="1">
-        <v>112316.5469</v>
+        <v>112311.8993</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1692</v>
+        <v>13.1956</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-11159.5712</v>
+        <v>-11157.2415</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0217</v>
+        <v>0.0213</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>12.716</v>
       </c>
       <c r="C14" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D14" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E14" s="1">
-        <v>9378.7042</v>
+        <v>9359.4285</v>
       </c>
       <c r="F14" s="1">
-        <v>-9378.7042</v>
+        <v>-9359.4285</v>
       </c>
       <c r="H14" s="1">
-        <v>119259.603</v>
+        <v>118776.7637</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119259.603</v>
+        <v>118776.7637</v>
       </c>
       <c r="K14" s="1">
-        <v>123476.1181</v>
+        <v>123469.1408</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1656</v>
+        <v>13.192</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2302.7518</v>
+        <v>2298.054</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121562.3547</v>
+        <v>121074.8177</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0315</v>
+        <v>-0.0318</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>12.2036</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>12.9136</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E3" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="F3" s="1">
-        <v>729.3244999999999</v>
+        <v>734.0667</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10581.7955</v>
+        <v>10539.4951</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10581.7955</v>
+        <v>10539.4951</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9418.2045</v>
+        <v>-9498.456200000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0582</v>
+        <v>0.0539</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>13.4338</v>
       </c>
       <c r="C4" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D4" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E4" s="1">
-        <v>1548.7548</v>
+        <v>1551.8552</v>
       </c>
       <c r="F4" s="1">
-        <v>684.4182</v>
+        <v>685.7985</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>20805.6622</v>
+        <v>20805.5681</v>
       </c>
       <c r="I4" s="1">
-        <v>581.7954999999999</v>
+        <v>501.5438</v>
       </c>
       <c r="J4" s="1">
-        <v>21387.4578</v>
+        <v>21307.1119</v>
       </c>
       <c r="K4" s="1">
-        <v>19418.2045</v>
+        <v>19498.4562</v>
       </c>
       <c r="L4" s="1">
-        <v>12.5379</v>
+        <v>12.5646</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9194.337799999999</v>
+        <v>-9231.3279</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0391</v>
+        <v>0.0374</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>12.9657</v>
       </c>
       <c r="C5" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E5" s="1">
-        <v>2233.173</v>
+        <v>2237.6537</v>
       </c>
       <c r="F5" s="1">
-        <v>851.8899</v>
+        <v>853.5841</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>28954.6517</v>
+        <v>28954.7919</v>
       </c>
       <c r="I5" s="1">
-        <v>1387.4578</v>
+        <v>1270.2159</v>
       </c>
       <c r="J5" s="1">
-        <v>30342.1095</v>
+        <v>30225.0079</v>
       </c>
       <c r="K5" s="1">
-        <v>28612.5422</v>
+        <v>28729.7841</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8125</v>
+        <v>12.8392</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>418.1638</v>
+        <v>419.0009</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10627.1845</v>
+        <v>-10670.5082</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0333</v>
+        <v>-0.0346</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>13.3568</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E6" s="1">
-        <v>3085.0629</v>
+        <v>3091.2379</v>
       </c>
       <c r="F6" s="1">
-        <v>658.3487</v>
+        <v>659.6717</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>41206.5681</v>
+        <v>41206.5101</v>
       </c>
       <c r="I6" s="1">
-        <v>760.2732999999999</v>
+        <v>599.7078</v>
       </c>
       <c r="J6" s="1">
-        <v>41966.8414</v>
+        <v>41806.2179</v>
       </c>
       <c r="K6" s="1">
-        <v>39657.8905</v>
+        <v>39819.2931</v>
       </c>
       <c r="L6" s="1">
-        <v>12.8548</v>
+        <v>12.8813</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8793.4319</v>
+        <v>-8828.782300000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0403</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>13.2487</v>
       </c>
       <c r="C7" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D7" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E7" s="1">
-        <v>3743.4116</v>
+        <v>3750.9096</v>
       </c>
       <c r="F7" s="1">
-        <v>785.3346</v>
+        <v>786.9132</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>49595.3372</v>
+        <v>49595.2769</v>
       </c>
       <c r="I7" s="1">
-        <v>1966.8414</v>
+        <v>1770.9255</v>
       </c>
       <c r="J7" s="1">
-        <v>51562.1786</v>
+        <v>51366.2023</v>
       </c>
       <c r="K7" s="1">
-        <v>48451.3224</v>
+        <v>48648.0754</v>
       </c>
       <c r="L7" s="1">
-        <v>12.9431</v>
+        <v>12.9697</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10404.6628</v>
+        <v>-10446.4295</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.0078</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>13.3991</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E8" s="1">
-        <v>4528.7462</v>
+        <v>4537.8228</v>
       </c>
       <c r="F8" s="1">
-        <v>695.4853000000001</v>
+        <v>696.8788</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60681.1234</v>
+        <v>60681.1272</v>
       </c>
       <c r="I8" s="1">
-        <v>1562.1786</v>
+        <v>1324.4959</v>
       </c>
       <c r="J8" s="1">
-        <v>62243.302</v>
+        <v>62005.6231</v>
       </c>
       <c r="K8" s="1">
-        <v>58855.9852</v>
+        <v>59094.505</v>
       </c>
       <c r="L8" s="1">
-        <v>12.9961</v>
+        <v>13.0227</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1347.6282</v>
+        <v>1350.3275</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-7971.2484</v>
+        <v>-8005.8981</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0111</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>13.5985</v>
       </c>
       <c r="C9" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D9" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E9" s="1">
-        <v>5224.2315</v>
+        <v>5234.7016</v>
       </c>
       <c r="F9" s="1">
-        <v>658.7703</v>
+        <v>660.0911</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>71041.7118</v>
+        <v>71041.7056</v>
       </c>
       <c r="I9" s="1">
-        <v>3590.9302</v>
+        <v>3318.5979</v>
       </c>
       <c r="J9" s="1">
-        <v>74632.6419</v>
+        <v>74360.30349999999</v>
       </c>
       <c r="K9" s="1">
-        <v>68174.8618</v>
+        <v>68450.73050000001</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0497</v>
+        <v>13.0763</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8958.288200000001</v>
+        <v>-8994.203299999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0331</v>
+        <v>0.0327</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>13.6955</v>
       </c>
       <c r="C10" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D10" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E10" s="1">
-        <v>5883.0018</v>
+        <v>5894.7927</v>
       </c>
       <c r="F10" s="1">
-        <v>688.4998000000001</v>
+        <v>689.8826</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>80570.65119999999</v>
+        <v>80570.6159</v>
       </c>
       <c r="I10" s="1">
-        <v>4632.6419</v>
+        <v>4324.3946</v>
       </c>
       <c r="J10" s="1">
-        <v>85203.2931</v>
+        <v>84895.0105</v>
       </c>
       <c r="K10" s="1">
-        <v>77133.14999999999</v>
+        <v>77444.9338</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1112</v>
+        <v>13.1379</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9429.3488</v>
+        <v>-9467.1896</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0067</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>13.3398</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E11" s="1">
-        <v>6571.5016</v>
+        <v>6584.6753</v>
       </c>
       <c r="F11" s="1">
-        <v>924.8627</v>
+        <v>926.7233</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>87662.5169</v>
+        <v>87662.4403</v>
       </c>
       <c r="I11" s="1">
-        <v>5203.2931</v>
+        <v>4857.2049</v>
       </c>
       <c r="J11" s="1">
-        <v>92865.81</v>
+        <v>92519.6452</v>
       </c>
       <c r="K11" s="1">
-        <v>86562.4988</v>
+        <v>86912.1235</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1724</v>
+        <v>13.1992</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1588.4105</v>
+        <v>1591.594</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10749.0726</v>
+        <v>-10795.4527</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0246</v>
+        <v>-0.025</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>12.8469</v>
       </c>
       <c r="C12" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D12" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E12" s="1">
-        <v>7496.3643</v>
+        <v>7511.3985</v>
       </c>
       <c r="F12" s="1">
-        <v>1066.0127</v>
+        <v>1068.1416</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>96305.04210000001</v>
+        <v>96305.1431</v>
       </c>
       <c r="I12" s="1">
-        <v>4454.2205</v>
+        <v>4061.7522</v>
       </c>
       <c r="J12" s="1">
-        <v>100759.2625</v>
+        <v>100366.8953</v>
       </c>
       <c r="K12" s="1">
-        <v>98899.982</v>
+        <v>99299.17019999999</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1931</v>
+        <v>13.2198</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-13694.9579</v>
+        <v>-13749.7594</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0205</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>13.129</v>
       </c>
       <c r="C13" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D13" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E13" s="1">
-        <v>8562.376899999999</v>
+        <v>8579.5401</v>
       </c>
       <c r="F13" s="1">
-        <v>577.6947</v>
+        <v>578.8776</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>112415.4465</v>
+        <v>112415.1405</v>
       </c>
       <c r="I13" s="1">
-        <v>759.2625</v>
+        <v>311.9928</v>
       </c>
       <c r="J13" s="1">
-        <v>113174.7091</v>
+        <v>112727.1333</v>
       </c>
       <c r="K13" s="1">
-        <v>112594.9399</v>
+        <v>113048.9296</v>
       </c>
       <c r="L13" s="1">
-        <v>13.15</v>
+        <v>13.1766</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7584.5535</v>
+        <v>-7615.3084</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0218</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>12.716</v>
       </c>
       <c r="C14" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D14" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E14" s="1">
-        <v>9140.071599999999</v>
+        <v>9158.4177</v>
       </c>
       <c r="F14" s="1">
-        <v>-9140.071599999999</v>
+        <v>-9158.4177</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>116225.1504</v>
+        <v>116225.8161</v>
       </c>
       <c r="I14" s="1">
-        <v>3174.7091</v>
+        <v>2696.6844</v>
       </c>
       <c r="J14" s="1">
-        <v>119399.8595</v>
+        <v>118922.5004</v>
       </c>
       <c r="K14" s="1">
-        <v>120179.4934</v>
+        <v>120664.238</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1486</v>
+        <v>13.1752</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2311.8418</v>
+        <v>2316.4758</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>118536.9922</v>
+        <v>118542.2919</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0306</v>
+        <v>-0.031</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>12.2036</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>12.9136</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E3" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="F3" s="1">
-        <v>733.1964</v>
+        <v>737.9463</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10581.7955</v>
+        <v>10539.4951</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10581.7955</v>
+        <v>10539.4951</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9468.2045</v>
+        <v>-9548.6567</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0582</v>
+        <v>0.0539</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>13.4338</v>
       </c>
       <c r="C4" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D4" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E4" s="1">
-        <v>1552.6267</v>
+        <v>1555.7349</v>
       </c>
       <c r="F4" s="1">
-        <v>691.7308</v>
+        <v>693.1258</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20857.6764</v>
+        <v>20857.582</v>
       </c>
       <c r="I4" s="1">
-        <v>531.7954999999999</v>
+        <v>451.3433</v>
       </c>
       <c r="J4" s="1">
-        <v>21389.4719</v>
+        <v>21308.9252</v>
       </c>
       <c r="K4" s="1">
-        <v>19468.2045</v>
+        <v>19548.6567</v>
       </c>
       <c r="L4" s="1">
-        <v>12.5389</v>
+        <v>12.5655</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9292.5736</v>
+        <v>-9329.958199999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0392</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>12.9657</v>
       </c>
       <c r="C5" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E5" s="1">
-        <v>2244.3575</v>
+        <v>2248.8607</v>
       </c>
       <c r="F5" s="1">
-        <v>863.9206</v>
+        <v>856.0377</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>29099.6662</v>
+        <v>29099.8072</v>
       </c>
       <c r="I5" s="1">
-        <v>1239.2219</v>
+        <v>1121.3851</v>
       </c>
       <c r="J5" s="1">
-        <v>30338.8882</v>
+        <v>30221.1923</v>
       </c>
       <c r="K5" s="1">
-        <v>28760.7781</v>
+        <v>28878.6149</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8147</v>
+        <v>12.8414</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>419.2092</v>
+        <v>420.0484</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10782.1258</v>
+        <v>-10701.3367</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0335</v>
+        <v>-0.0347</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>13.3568</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E6" s="1">
-        <v>3108.2781</v>
+        <v>3104.8984</v>
       </c>
       <c r="F6" s="1">
-        <v>672.7553</v>
+        <v>683.7083</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>41516.6488</v>
+        <v>41388.6057</v>
       </c>
       <c r="I6" s="1">
-        <v>457.0961</v>
+        <v>420.0484</v>
       </c>
       <c r="J6" s="1">
-        <v>41973.745</v>
+        <v>41808.6542</v>
       </c>
       <c r="K6" s="1">
-        <v>39962.1131</v>
+        <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.8567</v>
+        <v>12.8829</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-8985.857400000001</v>
+        <v>-9150.4789</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0405</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>13.2487</v>
       </c>
       <c r="C7" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D7" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E7" s="1">
-        <v>3781.0334</v>
+        <v>3788.6067</v>
       </c>
       <c r="F7" s="1">
-        <v>804.701</v>
+        <v>806.3184</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>50093.7766</v>
+        <v>50093.7156</v>
       </c>
       <c r="I7" s="1">
-        <v>1471.2387</v>
+        <v>1269.5695</v>
       </c>
       <c r="J7" s="1">
-        <v>51565.0152</v>
+        <v>51363.2851</v>
       </c>
       <c r="K7" s="1">
-        <v>48947.9705</v>
+        <v>49150.4789</v>
       </c>
       <c r="L7" s="1">
-        <v>12.9457</v>
+        <v>12.9732</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10661.2422</v>
+        <v>-10704.0381</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.007900000000000001</v>
+        <v>-0.0086</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>13.3991</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E8" s="1">
-        <v>4585.7344</v>
+        <v>4594.9251</v>
       </c>
       <c r="F8" s="1">
-        <v>717.5169</v>
+        <v>718.9546</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>61444.7132</v>
+        <v>61444.717</v>
       </c>
       <c r="I8" s="1">
-        <v>809.9965</v>
+        <v>565.5314</v>
       </c>
       <c r="J8" s="1">
-        <v>62254.7097</v>
+        <v>62010.2485</v>
       </c>
       <c r="K8" s="1">
-        <v>59609.2127</v>
+        <v>59854.517</v>
       </c>
       <c r="L8" s="1">
-        <v>12.9988</v>
+        <v>13.0262</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1361.172</v>
+        <v>1363.8984</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8252.908600000001</v>
+        <v>-8288.714400000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0112</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>13.5985</v>
       </c>
       <c r="C9" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D9" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E9" s="1">
-        <v>5303.2513</v>
+        <v>5313.8797</v>
       </c>
       <c r="F9" s="1">
-        <v>683.7391</v>
+        <v>685.1099</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>72116.2622</v>
+        <v>72116.2559</v>
       </c>
       <c r="I9" s="1">
-        <v>2557.0878</v>
+        <v>2276.817</v>
       </c>
       <c r="J9" s="1">
-        <v>74673.35000000001</v>
+        <v>74393.073</v>
       </c>
       <c r="K9" s="1">
-        <v>69223.2934</v>
+        <v>69507.1298</v>
       </c>
       <c r="L9" s="1">
-        <v>13.053</v>
+        <v>13.0803</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9297.825699999999</v>
+        <v>-9335.1019</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0335</v>
+        <v>0.0331</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>13.6955</v>
       </c>
       <c r="C10" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D10" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E10" s="1">
-        <v>5986.9903</v>
+        <v>5998.9896</v>
       </c>
       <c r="F10" s="1">
-        <v>717.4862000000001</v>
+        <v>718.9272</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>81994.8259</v>
+        <v>81994.78999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>3259.2622</v>
+        <v>2941.7152</v>
       </c>
       <c r="J10" s="1">
-        <v>85254.08809999999</v>
+        <v>84936.5052</v>
       </c>
       <c r="K10" s="1">
-        <v>78521.1191</v>
+        <v>78842.2317</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1153</v>
+        <v>13.1426</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9826.332399999999</v>
+        <v>-9865.7655</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0069</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>13.3398</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E11" s="1">
-        <v>6704.4765</v>
+        <v>6717.9168</v>
       </c>
       <c r="F11" s="1">
-        <v>962.8246</v>
+        <v>964.7615</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>89436.376</v>
+        <v>89436.2978</v>
       </c>
       <c r="I11" s="1">
-        <v>3432.9298</v>
+        <v>3075.9497</v>
       </c>
       <c r="J11" s="1">
-        <v>92869.3058</v>
+        <v>92512.2476</v>
       </c>
       <c r="K11" s="1">
-        <v>88347.45140000001</v>
+        <v>88707.99709999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1774</v>
+        <v>13.2047</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1616.4874</v>
+        <v>1619.7272</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11227.4007</v>
+        <v>-11275.7573</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.025</v>
+        <v>-0.0255</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>12.8469</v>
       </c>
       <c r="C12" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D12" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E12" s="1">
-        <v>7667.3012</v>
+        <v>7682.6783</v>
       </c>
       <c r="F12" s="1">
-        <v>950.0758</v>
+        <v>916.6907</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>98501.05130000001</v>
+        <v>98501.15459999999</v>
       </c>
       <c r="I12" s="1">
-        <v>2205.5291</v>
+        <v>1800.1924</v>
       </c>
       <c r="J12" s="1">
-        <v>100706.5804</v>
+        <v>100301.347</v>
       </c>
       <c r="K12" s="1">
-        <v>101191.3395</v>
+        <v>101603.4816</v>
       </c>
       <c r="L12" s="1">
-        <v>13.1978</v>
+        <v>13.225</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12205.5291</v>
+        <v>-11800.1924</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.021</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>13.129</v>
       </c>
       <c r="C13" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D13" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E13" s="1">
-        <v>8617.377</v>
+        <v>8599.368899999999</v>
       </c>
       <c r="F13" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>113137.5425</v>
+        <v>112674.9515</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>113137.5425</v>
+        <v>112674.9515</v>
       </c>
       <c r="K13" s="1">
-        <v>113396.8686</v>
+        <v>113403.674</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1591</v>
+        <v>13.1874</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.022</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>12.716</v>
       </c>
       <c r="C14" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D14" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E14" s="1">
-        <v>9379.0496</v>
+        <v>9359.5188</v>
       </c>
       <c r="F14" s="1">
-        <v>-9379.0496</v>
+        <v>-9359.5188</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119263.995</v>
+        <v>118777.9099</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119263.995</v>
+        <v>118777.9099</v>
       </c>
       <c r="K14" s="1">
-        <v>123396.8686</v>
+        <v>123403.674</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1566</v>
+        <v>13.1848</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2326.6918</v>
+        <v>2321.8296</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121590.6867</v>
+        <v>121099.7395</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0315</v>
+        <v>-0.0318</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>12.2036</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>12.9136</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E3" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="F3" s="1">
-        <v>737.0682</v>
+        <v>741.826</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10581.7955</v>
+        <v>10539.4951</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10581.7955</v>
+        <v>10539.4951</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9518.2045</v>
+        <v>-9598.8573</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0582</v>
+        <v>0.0539</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>13.4338</v>
       </c>
       <c r="C4" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D4" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E4" s="1">
-        <v>1556.4986</v>
+        <v>1559.6145</v>
       </c>
       <c r="F4" s="1">
-        <v>699.0806</v>
+        <v>700.4904</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>20909.6906</v>
+        <v>20909.5959</v>
       </c>
       <c r="I4" s="1">
-        <v>481.7955</v>
+        <v>401.1427</v>
       </c>
       <c r="J4" s="1">
-        <v>21391.4861</v>
+        <v>21310.7386</v>
       </c>
       <c r="K4" s="1">
-        <v>19518.2045</v>
+        <v>19598.8573</v>
       </c>
       <c r="L4" s="1">
-        <v>12.5398</v>
+        <v>12.5665</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9391.3094</v>
+        <v>-9429.0905</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0393</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>12.9657</v>
       </c>
       <c r="C5" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E5" s="1">
-        <v>2255.5792</v>
+        <v>2260.1049</v>
       </c>
       <c r="F5" s="1">
-        <v>855.3712</v>
+        <v>844.5432</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>29245.1634</v>
+        <v>29245.305</v>
       </c>
       <c r="I5" s="1">
-        <v>1090.4861</v>
+        <v>972.0522</v>
       </c>
       <c r="J5" s="1">
-        <v>30335.6495</v>
+        <v>30217.3572</v>
       </c>
       <c r="K5" s="1">
-        <v>28909.5139</v>
+        <v>29027.9478</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8169</v>
+        <v>12.8436</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>420.2546</v>
+        <v>421.0959</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10670.2315</v>
+        <v>-10550.9563</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0336</v>
+        <v>-0.0349</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>13.3568</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E6" s="1">
-        <v>3110.9504</v>
+        <v>3104.6481</v>
       </c>
       <c r="F6" s="1">
-        <v>708.0819</v>
+        <v>722.0336</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>41552.3422</v>
+        <v>41385.2696</v>
       </c>
       <c r="I6" s="1">
-        <v>420.2546</v>
+        <v>421.0959</v>
       </c>
       <c r="J6" s="1">
-        <v>41972.5968</v>
+        <v>41806.3655</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.8578</v>
+        <v>12.8839</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9457.707899999999</v>
+        <v>-9663.409299999999</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0406</v>
+        <v>0.0395</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>13.2487</v>
       </c>
       <c r="C7" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D7" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E7" s="1">
-        <v>3819.0323</v>
+        <v>3826.6817</v>
       </c>
       <c r="F7" s="1">
-        <v>824.4536000000001</v>
+        <v>810.3597</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>50597.2127</v>
+        <v>50597.1511</v>
       </c>
       <c r="I7" s="1">
-        <v>962.5467</v>
+        <v>757.6866</v>
       </c>
       <c r="J7" s="1">
-        <v>51559.7594</v>
+        <v>51354.8377</v>
       </c>
       <c r="K7" s="1">
-        <v>49457.7079</v>
+        <v>49663.4093</v>
       </c>
       <c r="L7" s="1">
-        <v>12.9503</v>
+        <v>12.9782</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10922.9379</v>
+        <v>-10757.6866</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.007900000000000001</v>
+        <v>-0.008699999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>13.3991</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E8" s="1">
-        <v>4643.4858</v>
+        <v>4637.0414</v>
       </c>
       <c r="F8" s="1">
-        <v>740.111</v>
+        <v>744.829</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>62218.5309</v>
+        <v>62007.9086</v>
       </c>
       <c r="I8" s="1">
-        <v>39.6088</v>
+        <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>62258.1397</v>
+        <v>62007.9086</v>
       </c>
       <c r="K8" s="1">
-        <v>60380.6458</v>
+        <v>60421.0959</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0033</v>
+        <v>13.0301</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1374.8516</v>
+        <v>1377.6054</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8541.9696</v>
+        <v>-8622.3946</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0113</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>13.5985</v>
       </c>
       <c r="C9" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D9" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E9" s="1">
-        <v>5383.5968</v>
+        <v>5381.8704</v>
       </c>
       <c r="F9" s="1">
-        <v>709.48</v>
+        <v>723.4184</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>73208.8413</v>
+        <v>73038.978</v>
       </c>
       <c r="I9" s="1">
-        <v>1497.6392</v>
+        <v>1377.6054</v>
       </c>
       <c r="J9" s="1">
-        <v>74706.48050000001</v>
+        <v>74416.5834</v>
       </c>
       <c r="K9" s="1">
-        <v>70297.46709999999</v>
+        <v>70421.0959</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0577</v>
+        <v>13.0849</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9647.864299999999</v>
+        <v>-9857.0816</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0339</v>
+        <v>0.0335</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>13.6955</v>
       </c>
       <c r="C10" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D10" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E10" s="1">
-        <v>6093.0769</v>
+        <v>6105.2888</v>
       </c>
       <c r="F10" s="1">
-        <v>747.5111000000001</v>
+        <v>749.0123</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>83447.7341</v>
+        <v>83447.6976</v>
       </c>
       <c r="I10" s="1">
-        <v>1849.7748</v>
+        <v>1520.5238</v>
       </c>
       <c r="J10" s="1">
-        <v>85297.5089</v>
+        <v>84968.22139999999</v>
       </c>
       <c r="K10" s="1">
-        <v>79945.3314</v>
+        <v>80278.17750000001</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1207</v>
+        <v>13.149</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10237.5386</v>
+        <v>-10278.621</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.007</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>13.3398</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E11" s="1">
-        <v>6840.588</v>
+        <v>6854.3011</v>
       </c>
       <c r="F11" s="1">
-        <v>870.4955</v>
+        <v>841.0506</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>91252.07550000001</v>
+        <v>91251.9958</v>
       </c>
       <c r="I11" s="1">
-        <v>1612.2362</v>
+        <v>1241.9028</v>
       </c>
       <c r="J11" s="1">
-        <v>92864.3118</v>
+        <v>92493.8986</v>
       </c>
       <c r="K11" s="1">
-        <v>90182.87</v>
+        <v>90556.7985</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1835</v>
+        <v>13.2117</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1645.1308</v>
+        <v>1648.428</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-9967.1055</v>
+        <v>-9593.474899999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0255</v>
+        <v>-0.0261</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>12.8469</v>
       </c>
       <c r="C12" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D12" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E12" s="1">
-        <v>7711.0835</v>
+        <v>7695.3517</v>
       </c>
       <c r="F12" s="1">
-        <v>906.4545000000001</v>
+        <v>904.901</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>99063.5187</v>
+        <v>98663.643</v>
       </c>
       <c r="I12" s="1">
-        <v>1645.1308</v>
+        <v>1648.428</v>
       </c>
       <c r="J12" s="1">
-        <v>100708.6495</v>
+        <v>100312.071</v>
       </c>
       <c r="K12" s="1">
-        <v>101795.1062</v>
+        <v>101798.7013</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2011</v>
+        <v>13.2286</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11645.1308</v>
+        <v>-11648.428</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.021</v>
+        <v>-0.0213</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>13.129</v>
       </c>
       <c r="C13" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D13" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E13" s="1">
-        <v>8617.538</v>
+        <v>8600.2526</v>
       </c>
       <c r="F13" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>113139.657</v>
+        <v>112686.5302</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>113139.657</v>
+        <v>112686.5302</v>
       </c>
       <c r="K13" s="1">
-        <v>113440.237</v>
+        <v>113447.1293</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1639</v>
+        <v>13.1911</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.022</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>12.716</v>
       </c>
       <c r="C14" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D14" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E14" s="1">
-        <v>9379.2107</v>
+        <v>9360.4025</v>
       </c>
       <c r="F14" s="1">
-        <v>-9379.2107</v>
+        <v>-9360.4025</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119266.043</v>
+        <v>118789.1244</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119266.043</v>
+        <v>118789.1244</v>
       </c>
       <c r="K14" s="1">
-        <v>123440.237</v>
+        <v>123447.1293</v>
       </c>
       <c r="L14" s="1">
-        <v>13.161</v>
+        <v>13.1882</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2326.7353</v>
+        <v>2322.0682</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121592.7782</v>
+        <v>121111.1927</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0315</v>
+        <v>-0.0318</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>12.2036</v>
       </c>
       <c r="C2" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D2" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>12.9136</v>
       </c>
       <c r="C3" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E3" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="F3" s="1">
-        <v>740.9401</v>
+        <v>745.7056</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10581.7955</v>
+        <v>10539.4951</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10581.7955</v>
+        <v>10539.4951</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9568.2045</v>
+        <v>-9649.0579</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0582</v>
+        <v>0.0539</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>13.4338</v>
       </c>
       <c r="C4" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D4" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E4" s="1">
-        <v>1560.3705</v>
+        <v>1563.4942</v>
       </c>
       <c r="F4" s="1">
-        <v>706.4677</v>
+        <v>707.8922</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>20961.7047</v>
+        <v>20961.6098</v>
       </c>
       <c r="I4" s="1">
-        <v>431.7955</v>
+        <v>350.9421</v>
       </c>
       <c r="J4" s="1">
-        <v>21393.5003</v>
+        <v>21312.5519</v>
       </c>
       <c r="K4" s="1">
-        <v>19568.2045</v>
+        <v>19649.0579</v>
       </c>
       <c r="L4" s="1">
-        <v>12.5407</v>
+        <v>12.5674</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9490.5453</v>
+        <v>-9528.7248</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0394</v>
+        <v>0.0376</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>12.9657</v>
       </c>
       <c r="C5" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D5" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E5" s="1">
-        <v>2266.8381</v>
+        <v>2271.3864</v>
       </c>
       <c r="F5" s="1">
-        <v>843.8611</v>
+        <v>833.0101</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>29391.1431</v>
+        <v>29391.2854</v>
       </c>
       <c r="I5" s="1">
-        <v>941.2503</v>
+        <v>822.2173</v>
       </c>
       <c r="J5" s="1">
-        <v>30332.3933</v>
+        <v>30213.5028</v>
       </c>
       <c r="K5" s="1">
-        <v>29058.7497</v>
+        <v>29177.7827</v>
       </c>
       <c r="L5" s="1">
-        <v>12.8191</v>
+        <v>12.8458</v>
       </c>
       <c r="M5" s="1">
         <v>0.3</v>
       </c>
       <c r="N5" s="1">
-        <v>421.3</v>
+        <v>422.1434</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10519.9502</v>
+        <v>-10400.0739</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0338</v>
+        <v>-0.0351</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>13.3568</v>
       </c>
       <c r="C6" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D6" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E6" s="1">
-        <v>3110.6993</v>
+        <v>3104.3965</v>
       </c>
       <c r="F6" s="1">
-        <v>746.7119</v>
+        <v>760.741</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>41548.9878</v>
+        <v>41381.9155</v>
       </c>
       <c r="I6" s="1">
-        <v>421.3</v>
+        <v>422.1434</v>
       </c>
       <c r="J6" s="1">
-        <v>41970.2878</v>
+        <v>41804.0589</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.8588</v>
+        <v>12.885</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9973.681500000001</v>
+        <v>-10181.4534</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0406</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>13.2487</v>
       </c>
       <c r="C7" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D7" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E7" s="1">
-        <v>3857.4112</v>
+        <v>3865.1375</v>
       </c>
       <c r="F7" s="1">
-        <v>788.5769</v>
+        <v>771.4151000000001</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>51105.6831</v>
+        <v>51105.6209</v>
       </c>
       <c r="I7" s="1">
-        <v>447.6186</v>
+        <v>240.69</v>
       </c>
       <c r="J7" s="1">
-        <v>51553.3017</v>
+        <v>51346.3109</v>
       </c>
       <c r="K7" s="1">
-        <v>49973.6815</v>
+        <v>50181.4534</v>
       </c>
       <c r="L7" s="1">
-        <v>12.9552</v>
+        <v>12.9831</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10447.6186</v>
+        <v>-10240.69</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.008</v>
+        <v>-0.008800000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>13.3991</v>
       </c>
       <c r="C8" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D8" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E8" s="1">
-        <v>4645.988</v>
+        <v>4636.5526</v>
       </c>
       <c r="F8" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>62252.0583</v>
+        <v>62001.3725</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>62252.0583</v>
+        <v>62001.3725</v>
       </c>
       <c r="K8" s="1">
-        <v>60421.3</v>
+        <v>60422.1434</v>
       </c>
       <c r="L8" s="1">
-        <v>13.005</v>
+        <v>13.0317</v>
       </c>
       <c r="M8" s="1">
         <v>0.4</v>
       </c>
       <c r="N8" s="1">
-        <v>1388.668</v>
+        <v>1391.4495</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-8611.332</v>
+        <v>-8608.550499999999</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0114</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>13.5985</v>
       </c>
       <c r="C9" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D9" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E9" s="1">
-        <v>5392.3068</v>
+        <v>5381.3816</v>
       </c>
       <c r="F9" s="1">
-        <v>808.9941</v>
+        <v>832.3482</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73327.2843</v>
+        <v>73032.3446</v>
       </c>
       <c r="I9" s="1">
-        <v>1388.668</v>
+        <v>1391.4495</v>
       </c>
       <c r="J9" s="1">
-        <v>74715.9523</v>
+        <v>74423.7941</v>
       </c>
       <c r="K9" s="1">
-        <v>70421.3</v>
+        <v>70422.1434</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0596</v>
+        <v>13.0863</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-11001.1068</v>
+        <v>-11341.3262</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0341</v>
+        <v>0.0336</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>13.6955</v>
       </c>
       <c r="C10" s="1">
-        <v>13.6955</v>
+        <v>13.6681</v>
       </c>
       <c r="D10" s="1">
-        <v>13.6955</v>
+        <v>13.7229</v>
       </c>
       <c r="E10" s="1">
-        <v>6201.301</v>
+        <v>6213.7298</v>
       </c>
       <c r="F10" s="1">
-        <v>758.4653</v>
+        <v>732.3615</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>84929.9173</v>
+        <v>84929.88009999999</v>
       </c>
       <c r="I10" s="1">
-        <v>387.5612</v>
+        <v>50.1233</v>
       </c>
       <c r="J10" s="1">
-        <v>85317.4785</v>
+        <v>84980.0034</v>
       </c>
       <c r="K10" s="1">
-        <v>81422.4068</v>
+        <v>81763.4697</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1299</v>
+        <v>13.1585</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10387.5612</v>
+        <v>-10050.1233</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0071</v>
+        <v>0.0066</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>13.3398</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3398</v>
+        <v>13.3131</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3398</v>
+        <v>13.3665</v>
       </c>
       <c r="E11" s="1">
-        <v>6959.7662</v>
+        <v>6946.0913</v>
       </c>
       <c r="F11" s="1">
-        <v>749.6364</v>
+        <v>748.139</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>92841.88959999999</v>
+        <v>92474.0076</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>92841.88959999999</v>
+        <v>92474.0076</v>
       </c>
       <c r="K11" s="1">
-        <v>91809.96799999999</v>
+        <v>91813.5929</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1915</v>
+        <v>13.218</v>
       </c>
       <c r="M11" s="1">
         <v>0.3</v>
       </c>
       <c r="N11" s="1">
-        <v>1674.3513</v>
+        <v>1677.707</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8325.6487</v>
+        <v>-8322.293</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.026</v>
+        <v>-0.0264</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>12.8469</v>
       </c>
       <c r="C12" s="1">
-        <v>12.8469</v>
+        <v>12.8212</v>
       </c>
       <c r="D12" s="1">
-        <v>12.8469</v>
+        <v>12.8726</v>
       </c>
       <c r="E12" s="1">
-        <v>7709.4027</v>
+        <v>7694.2303</v>
       </c>
       <c r="F12" s="1">
-        <v>908.7291</v>
+        <v>907.1755000000001</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>99041.925</v>
+        <v>98649.2651</v>
       </c>
       <c r="I12" s="1">
-        <v>1674.3513</v>
+        <v>1677.707</v>
       </c>
       <c r="J12" s="1">
-        <v>100716.2763</v>
+        <v>100326.9721</v>
       </c>
       <c r="K12" s="1">
-        <v>101809.968</v>
+        <v>101813.5929</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2059</v>
+        <v>13.2325</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11674.3513</v>
+        <v>-11677.707</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0207</v>
+        <v>-0.021</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>13.129</v>
       </c>
       <c r="C13" s="1">
-        <v>13.129</v>
+        <v>13.1027</v>
       </c>
       <c r="D13" s="1">
-        <v>13.129</v>
+        <v>13.1553</v>
       </c>
       <c r="E13" s="1">
-        <v>8618.1317</v>
+        <v>8601.405699999999</v>
       </c>
       <c r="F13" s="1">
-        <v>761.6726</v>
+        <v>760.1499</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>113147.4513</v>
+        <v>112701.639</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>113147.4513</v>
+        <v>112701.639</v>
       </c>
       <c r="K13" s="1">
-        <v>113484.3193</v>
+        <v>113491.3</v>
       </c>
       <c r="L13" s="1">
-        <v>13.1681</v>
+        <v>13.1945</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4379,7 +4379,7 @@
         <v>-10000</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.022</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>12.716</v>
       </c>
       <c r="C14" s="1">
-        <v>12.716</v>
+        <v>12.6906</v>
       </c>
       <c r="D14" s="1">
-        <v>12.716</v>
+        <v>12.7415</v>
       </c>
       <c r="E14" s="1">
-        <v>9379.8043</v>
+        <v>9361.5556</v>
       </c>
       <c r="F14" s="1">
-        <v>-9379.8043</v>
+        <v>-9361.5556</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>119273.5921</v>
+        <v>118803.7581</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>119273.5921</v>
+        <v>118803.7581</v>
       </c>
       <c r="K14" s="1">
-        <v>123484.3193</v>
+        <v>123491.3</v>
       </c>
       <c r="L14" s="1">
-        <v>13.1649</v>
+        <v>13.1913</v>
       </c>
       <c r="M14" s="1">
         <v>0.3</v>
       </c>
       <c r="N14" s="1">
-        <v>2326.8956</v>
+        <v>2322.3796</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121600.4876</v>
+        <v>121126.1376</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0315</v>
+        <v>-0.0318</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.1656</v>
+        <v>13.192</v>
       </c>
       <c r="D3" s="1">
-        <v>13.1486</v>
+        <v>13.1752</v>
       </c>
       <c r="E3" s="1">
-        <v>13.1566</v>
+        <v>13.1848</v>
       </c>
       <c r="F3" s="1">
-        <v>13.161</v>
+        <v>13.1882</v>
       </c>
       <c r="G3" s="1">
-        <v>13.1649</v>
+        <v>13.1913</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0466</v>
       </c>
       <c r="C4" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.0803</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0935</v>
+        <v>0.0814</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0926</v>
+        <v>0.0803</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0927</v>
+        <v>0.0804</v>
       </c>
       <c r="G4" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1045</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1055</v>
+        <v>0.1033</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1033</v>
+        <v>0.1013</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1043</v>
+        <v>0.1022</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1046</v>
+        <v>0.1026</v>
       </c>
       <c r="G5" s="3">
-        <v>0.1049</v>
+        <v>0.1028</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.2517</v>
       </c>
       <c r="C6" s="4">
-        <v>0.6869</v>
+        <v>0.5802</v>
       </c>
       <c r="D6" s="4">
-        <v>0.7083</v>
+        <v>0.6025</v>
       </c>
       <c r="E6" s="4">
-        <v>0.6932</v>
+        <v>0.5863</v>
       </c>
       <c r="F6" s="4">
-        <v>0.6922</v>
+        <v>0.586</v>
       </c>
       <c r="G6" s="4">
-        <v>0.6914</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0244</v>
+        <v>0.0168</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0274</v>
+        <v>0.0198</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0251</v>
+        <v>0.0173</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0249</v>
+        <v>0.0173</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0249</v>
+        <v>0.0175</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5778.8699</v>
+        <v>5767.1947</v>
       </c>
       <c r="D8" s="1">
-        <v>5666.0442</v>
+        <v>5677.3982</v>
       </c>
       <c r="E8" s="1">
-        <v>5723.5604</v>
+        <v>5725.5036</v>
       </c>
       <c r="F8" s="1">
-        <v>5766.9723</v>
+        <v>5769.1975</v>
       </c>
       <c r="G8" s="1">
-        <v>5811.2149</v>
+        <v>5813.6795</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P60_KFSDIV.xlsx
+++ b/output/1Y_P60_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6713.8778</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.962</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.991</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9623</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9623</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.962</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
